--- a/anomalib_result.xlsx
+++ b/anomalib_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\repo\GingerPlantAnomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2EBE4-61D2-43C1-BA60-747E4A66CDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1A578-21C0-4417-B18A-F7ED51F89592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E60984-6E81-482A-A065-4B30FAF80B89}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="33">
   <si>
     <t>dataset_type</t>
   </si>
@@ -127,6 +127,15 @@
   <si>
     <t>min</t>
   </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>Week 3 - Week 6</t>
+  </si>
+  <si>
+    <t>Week 3 Only</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -145,15 +154,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,28 +176,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -192,6 +264,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -201,6 +276,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -210,6 +288,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -219,6 +300,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -228,6 +312,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -237,6 +324,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -246,6 +336,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -255,6 +348,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -264,6 +360,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -273,6 +372,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -282,6 +384,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -291,6 +396,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -300,6 +408,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -309,55 +420,16 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +453,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{412A4BFD-4200-4F62-91B3-5BE3B73F272B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{FCD22061-F542-4CAB-BED4-92779DBF88C9}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{F1406109-A015-4763-9924-F60D9D163C54}" name=" AUROC" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{AA40D5FA-A298-4FEA-A507-4F5BA132DB6D}" name=" AUPR" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{9C7F8D13-DFE3-4E75-AAE3-3C1BE8A5CE15}" name=" Time" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{09768EB7-3366-4008-B4B4-5A5E35852819}" name="Min" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{F1406109-A015-4763-9924-F60D9D163C54}" name=" AUROC" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{AA40D5FA-A298-4FEA-A507-4F5BA132DB6D}" name=" AUPR" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{9C7F8D13-DFE3-4E75-AAE3-3C1BE8A5CE15}" name=" Time" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{09768EB7-3366-4008-B4B4-5A5E35852819}" name="Min" dataDxfId="64">
       <calculatedColumnFormula>Table1[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -401,10 +473,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09322892-6F55-4DD8-83C6-B09F3166E0CE}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{D268B2F8-1329-44BA-AAE0-B4A70BEF8C7A}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{9227229D-E55B-4CB6-BBBB-989F124993E0}" name=" AUROC" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D3119362-9DB5-41BC-A254-8E92573E4EE6}" name=" AUPR" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{6D106044-E883-4830-82DF-BDEE87AD8E30}" name=" Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{56517E34-75A6-4E85-884A-F5671F6AAE43}" name="Min" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{9227229D-E55B-4CB6-BBBB-989F124993E0}" name=" AUROC" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D3119362-9DB5-41BC-A254-8E92573E4EE6}" name=" AUPR" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{6D106044-E883-4830-82DF-BDEE87AD8E30}" name=" Time" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{56517E34-75A6-4E85-884A-F5671F6AAE43}" name="Min" dataDxfId="28">
       <calculatedColumnFormula>Table10[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -421,10 +493,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{788DEC79-EA9C-48F0-962E-9ABB48597337}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{DD023CB2-637D-46BA-8E25-844A5C097B2C}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{495B95CF-1BC4-43A9-80CA-285333BF37FC}" name=" AUROC" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{08F00F97-658F-4C99-B4A7-982977FE113A}" name=" AUPR" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{85A2B208-486B-4164-8B21-DFC1049F74AA}" name=" Time" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C10B3EA8-259C-4C87-B78C-96BA2D709768}" name="Min" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{495B95CF-1BC4-43A9-80CA-285333BF37FC}" name=" AUROC" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{08F00F97-658F-4C99-B4A7-982977FE113A}" name=" AUPR" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{85A2B208-486B-4164-8B21-DFC1049F74AA}" name=" Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{C10B3EA8-259C-4C87-B78C-96BA2D709768}" name="Min" dataDxfId="24">
       <calculatedColumnFormula>Table11[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -441,10 +513,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{771E30E1-DEB2-4F2A-9458-1D5707D42569}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{C8BA4940-1A92-4B18-AC8E-CCB8449A78A0}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{79F5F3B6-78F9-4B0A-8F9A-0D0E3E630A52}" name=" AUROC" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7091E530-DC61-4DC7-AFC2-888477E7471C}" name=" AUPR" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0038D7FD-12FA-4341-B5CF-D55014375924}" name=" Time" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{951CFA74-9593-4598-B9CE-3A5FA27FE300}" name="Min" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{79F5F3B6-78F9-4B0A-8F9A-0D0E3E630A52}" name=" AUROC" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7091E530-DC61-4DC7-AFC2-888477E7471C}" name=" AUPR" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{0038D7FD-12FA-4341-B5CF-D55014375924}" name=" Time" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{951CFA74-9593-4598-B9CE-3A5FA27FE300}" name="Min" dataDxfId="20">
       <calculatedColumnFormula>Table12[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -461,10 +533,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DCF5EB35-C6D9-40B0-A3A3-3C071733435A}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{A3C99B53-3641-457B-A1D4-32B2629F64CF}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{498CEC75-5948-4B72-892C-028683AD6984}" name=" AUROC" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{ADCFDF95-FA9F-405E-9705-1D12CEBFBD39}" name=" AUPR" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E4756C44-8452-480B-90D6-B75DBD9127E6}" name=" Time" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{10E367A9-2483-4C28-AE32-E2EE04E4B708}" name="min" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{498CEC75-5948-4B72-892C-028683AD6984}" name=" AUROC" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{ADCFDF95-FA9F-405E-9705-1D12CEBFBD39}" name=" AUPR" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E4756C44-8452-480B-90D6-B75DBD9127E6}" name=" Time" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{10E367A9-2483-4C28-AE32-E2EE04E4B708}" name="min" dataDxfId="16">
       <calculatedColumnFormula>Table13[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -481,10 +553,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0F113812-B1AA-4999-AD9B-D1B5B8992C2B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{8634DFB4-BE99-47A8-AE2D-840539D4E868}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{BF74B8F1-9C9F-4D71-8F64-A321B480DEDF}" name=" AUROC" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{AD90DBCF-8B6D-41F1-9FAE-F4CE49B5CD24}" name=" AUPR" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F09C9B83-D3FB-4FA8-AD4C-63228383B557}" name=" Time" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{76F0E7D2-DF7D-4EFC-80B4-F0DBECB9439A}" name="Min" dataDxfId="46">
+    <tableColumn id="3" xr3:uid="{BF74B8F1-9C9F-4D71-8F64-A321B480DEDF}" name=" AUROC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AD90DBCF-8B6D-41F1-9FAE-F4CE49B5CD24}" name=" AUPR" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{F09C9B83-D3FB-4FA8-AD4C-63228383B557}" name=" Time" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{76F0E7D2-DF7D-4EFC-80B4-F0DBECB9439A}" name="Min" dataDxfId="12">
       <calculatedColumnFormula>Table14[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -501,11 +573,51 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AE030CBA-D7B2-4315-90D2-3D222D4E0250}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{4A28F337-2467-462D-B525-DF7CA8AA53D0}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{730AFA92-CE8C-49C7-92AD-6EE5C25B6B3D}" name=" AUROC" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{5731D8F0-2896-4B31-9996-1119ACEE35B2}" name=" AUPR" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{494C58A0-15E9-48ED-95FA-86267562BD67}" name=" Time" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{DC081A22-FC55-41D3-971C-CF626C271116}" name="Min" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{730AFA92-CE8C-49C7-92AD-6EE5C25B6B3D}" name=" AUROC" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5731D8F0-2896-4B31-9996-1119ACEE35B2}" name=" AUPR" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{494C58A0-15E9-48ED-95FA-86267562BD67}" name=" Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DC081A22-FC55-41D3-971C-CF626C271116}" name="Min" dataDxfId="8">
       <calculatedColumnFormula>Table15[[#This Row],[ Time]]/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{5E32DAA1-588F-4EEE-B8AC-FC2D2FC981BA}" name="Table16" displayName="Table16" ref="A152:F160" totalsRowShown="0">
+  <autoFilter ref="A152:F160" xr:uid="{5E32DAA1-588F-4EEE-B8AC-FC2D2FC981BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A153:F160">
+    <sortCondition descending="1" ref="C152:C160"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{01C52D0D-BE5F-487E-8154-0C4DC82B9C76}" name="dataset_type"/>
+    <tableColumn id="2" xr3:uid="{CE53E5FE-36A6-4738-B143-45A81E3CC907}" name=" model_type"/>
+    <tableColumn id="3" xr3:uid="{B63849FA-8C37-4118-95CB-28F1CD1C098B}" name=" AUROC" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E6537534-FC81-481F-8128-DA39E4FF7030}" name=" AUPR" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D7732EA2-9C64-448D-BC13-45FA22198722}" name=" Time" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AE77A438-4E11-4717-A1C3-4361426D63BA}" name="Min" dataDxfId="2">
+      <calculatedColumnFormula>Table16[[#This Row],[ Time]]/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{8461C60B-FDE0-4582-BAE6-0F22E361F0F8}" name="Table17" displayName="Table17" ref="A163:F171" totalsRowShown="0">
+  <autoFilter ref="A163:F171" xr:uid="{8461C60B-FDE0-4582-BAE6-0F22E361F0F8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A164:F171">
+    <sortCondition descending="1" ref="C163:C171"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{807A03FC-9BDA-4D9D-8742-67AFFC5CA13D}" name="dataset_type"/>
+    <tableColumn id="2" xr3:uid="{0844F13C-6A59-4797-B3B9-10343A7794DC}" name=" model_type"/>
+    <tableColumn id="3" xr3:uid="{F3E15837-15C3-4EA8-98C9-47E8454222F5}" name=" AUROC" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{796924E3-C0D3-4FCD-905F-086597C3B5CC}" name=" AUPR" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C3BD027C-FAD5-4C86-A7D0-A89A3BFFBF0B}" name=" Time" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D604FB19-BE92-4947-BD70-CF3E8DB83E92}" name="Min" dataDxfId="0">
+      <calculatedColumnFormula>Table17[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -521,10 +633,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9D351D73-B4DB-4D20-BD4B-106147539440}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{B4618451-A2BD-480B-B231-64A285D5F099}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{0ACC28F9-BF80-4C75-96F7-5A9D0908ED78}" name=" AUROC" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{97F615CD-D527-41DB-A8B2-BE68762598DC}" name=" AUPR" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{21F8CB07-3B9A-4F07-83FF-70DCD0E04E12}" name=" Time" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{AB14E369-02D2-4C0E-B2AF-6FDE920DBB3A}" name="Min" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{0ACC28F9-BF80-4C75-96F7-5A9D0908ED78}" name=" AUROC" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{97F615CD-D527-41DB-A8B2-BE68762598DC}" name=" AUPR" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{21F8CB07-3B9A-4F07-83FF-70DCD0E04E12}" name=" Time" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{AB14E369-02D2-4C0E-B2AF-6FDE920DBB3A}" name="Min" dataDxfId="60">
       <calculatedColumnFormula>Table2[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -541,10 +653,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{50D2DEBB-6B8C-4750-9EEC-07BEFF68865B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{6C94CE1E-236C-4B0D-B851-5FFA40C37DF8}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{8F7CB299-9008-4DEF-B3E9-353128FA1FF6}" name=" AUROC" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{F84B1B67-C3A3-4468-9DD3-BA56A4C1063D}" name=" AUPR" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{136F60BA-3A2D-4063-ACC8-E74EDB98DF35}" name=" Time" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{84E485F0-6ACE-45B3-8B20-D0C747037F18}" name="Min" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{8F7CB299-9008-4DEF-B3E9-353128FA1FF6}" name=" AUROC" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{F84B1B67-C3A3-4468-9DD3-BA56A4C1063D}" name=" AUPR" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{136F60BA-3A2D-4063-ACC8-E74EDB98DF35}" name=" Time" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{84E485F0-6ACE-45B3-8B20-D0C747037F18}" name="Min" dataDxfId="56">
       <calculatedColumnFormula>Table3[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -561,10 +673,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D5B3AEAC-D75B-4D71-A072-1D4396BAD03E}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{88F3F676-D711-48C2-A389-E6B0D34BD0D2}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{338F8B8C-C0A0-448F-8A6B-7BFF11360480}" name=" AUROC" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{904515C7-76A9-4464-8CB3-BAB58C060222}" name=" AUPR" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{3313CFEA-4092-4C33-A974-F47CCA2C0258}" name=" Time" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{77C31A1E-2AFA-46E0-ADA0-5397053A8D3B}" name="Min" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{338F8B8C-C0A0-448F-8A6B-7BFF11360480}" name=" AUROC" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{904515C7-76A9-4464-8CB3-BAB58C060222}" name=" AUPR" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{3313CFEA-4092-4C33-A974-F47CCA2C0258}" name=" Time" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{77C31A1E-2AFA-46E0-ADA0-5397053A8D3B}" name="Min" dataDxfId="52">
       <calculatedColumnFormula>Table4[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -581,10 +693,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F190D1BD-66B4-404E-B24E-7C37B7BCCFDE}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{2E2013B6-6813-4146-9FE3-D82F1358AF54}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{8EAF5964-118C-49C3-AB3E-1B0E3EA8E8C3}" name=" AUROC" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C8605CCD-E6A8-4531-B62F-CAC9A732AC34}" name=" AUPR" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{B4DE1BA1-CB53-4936-A92E-6BBB88B283EA}" name=" Time" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{DEEF9236-EB2C-4D58-814F-2C242D11D80C}" name="Min" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{8EAF5964-118C-49C3-AB3E-1B0E3EA8E8C3}" name=" AUROC" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{C8605CCD-E6A8-4531-B62F-CAC9A732AC34}" name=" AUPR" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B4DE1BA1-CB53-4936-A92E-6BBB88B283EA}" name=" Time" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{DEEF9236-EB2C-4D58-814F-2C242D11D80C}" name="Min" dataDxfId="48">
       <calculatedColumnFormula>Table5[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -598,10 +710,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E982D0C-AF51-4165-A5A7-41AC8610B9A1}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{67BAECCA-7C68-459A-B947-0F7D39A839F6}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{CDC9A06C-5275-47DA-B66E-37CC2DEFE9B5}" name=" AUROC" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{33592822-CB05-4C71-B77D-8B0E377F2DCD}" name=" AUPR" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{480F2693-59D1-4101-B6D0-9630DE801FCF}" name=" Time" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{5DAA2575-253B-48BC-B172-C6B051D1D439}" name="Min" dataDxfId="54">
+    <tableColumn id="3" xr3:uid="{CDC9A06C-5275-47DA-B66E-37CC2DEFE9B5}" name=" AUROC" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{33592822-CB05-4C71-B77D-8B0E377F2DCD}" name=" AUPR" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{480F2693-59D1-4101-B6D0-9630DE801FCF}" name=" Time" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{5DAA2575-253B-48BC-B172-C6B051D1D439}" name="Min" dataDxfId="44">
       <calculatedColumnFormula>Table6[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -618,10 +730,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{288432C1-4F99-49D2-993A-F5C884882D4C}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{3A9D9B06-5436-400A-AFEF-013C96F6081B}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{AFB0D037-7529-4AC5-8EF4-48CE91280757}" name=" AUROC" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{BD0E7BEB-F44F-480C-9EBB-7F435BDE4D01}" name=" AUPR" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{28991AAE-F9B1-4D75-8DA8-6F37B58A93AF}" name=" Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{C5FE48EF-BD37-4628-849C-9D714BB1B9F8}" name="Min" dataDxfId="53">
+    <tableColumn id="3" xr3:uid="{AFB0D037-7529-4AC5-8EF4-48CE91280757}" name=" AUROC" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{BD0E7BEB-F44F-480C-9EBB-7F435BDE4D01}" name=" AUPR" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{28991AAE-F9B1-4D75-8DA8-6F37B58A93AF}" name=" Time" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{C5FE48EF-BD37-4628-849C-9D714BB1B9F8}" name="Min" dataDxfId="40">
       <calculatedColumnFormula>Table7[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -638,10 +750,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E0ADBC17-F1BD-42D5-8383-F70DA54D7E06}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{F5F43D64-1812-4FAC-91E6-72D7DA7D58AD}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{C444C37D-0DD2-47A6-B359-F11EA7473DC3}" name=" AUROC" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CEB218C2-B46F-4119-B6DE-2053F93BDA8E}" name=" AUPR" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{91684553-201C-4771-913F-FCFEEF909C89}" name=" Time" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{4FE27E77-210A-4B6D-9B8C-94A74D25DBC9}" name="Min" dataDxfId="52">
+    <tableColumn id="3" xr3:uid="{C444C37D-0DD2-47A6-B359-F11EA7473DC3}" name=" AUROC" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{CEB218C2-B46F-4119-B6DE-2053F93BDA8E}" name=" AUPR" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{91684553-201C-4771-913F-FCFEEF909C89}" name=" Time" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{4FE27E77-210A-4B6D-9B8C-94A74D25DBC9}" name="Min" dataDxfId="36">
       <calculatedColumnFormula>Table8[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -658,10 +770,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61A22ACC-804A-4800-90D1-87AC5AE04256}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{10923F52-D7FB-4454-B694-AA3112576B4C}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{7BF46A77-655D-4C6A-848D-43E64E45C909}" name=" AUROC" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{5FD93AB2-BCC2-4EBB-BA84-6C2437D5C118}" name=" AUPR" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{EA4B5AF4-6597-476C-A161-245277488A73}" name=" Time" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{044BE43A-F180-486C-B7AE-15ED9EFA4699}" name="Min" dataDxfId="51">
+    <tableColumn id="3" xr3:uid="{7BF46A77-655D-4C6A-848D-43E64E45C909}" name=" AUROC" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{5FD93AB2-BCC2-4EBB-BA84-6C2437D5C118}" name=" AUPR" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{EA4B5AF4-6597-476C-A161-245277488A73}" name=" Time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{044BE43A-F180-486C-B7AE-15ED9EFA4699}" name="Min" dataDxfId="32">
       <calculatedColumnFormula>Table9[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -986,20 +1098,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2A1D0D-C06E-45CE-8F71-58D6403182D9}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,16 +1121,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1029,16 +1141,16 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>0.99346590042114202</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>76.932271718978797</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2822045286496466</v>
       </c>
@@ -1050,16 +1162,16 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.99346590042114202</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>824.07416129112198</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>13.734569354852033</v>
       </c>
@@ -1071,16 +1183,16 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.999999940395355</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.99346590042114202</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2839.56593680381</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>47.32609894673017</v>
       </c>
@@ -1094,16 +1206,16 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.99864125251769997</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.99297761917114202</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>77.642154693603501</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2940359115600584</v>
       </c>
@@ -1118,16 +1230,16 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.99728256464004505</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.99251890182495095</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1151.2782168388301</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>19.187970280647168</v>
       </c>
@@ -1142,16 +1254,16 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.98641306161880404</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.985343217849731</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>76.804131507873507</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2800688584645585</v>
       </c>
@@ -1165,16 +1277,16 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.91711956262588501</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.944865822792053</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1958.5667765140499</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>32.642779608567501</v>
       </c>
@@ -1188,16 +1300,16 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.86684781312942505</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.91998082399368197</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>815.07849454879704</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>13.584641575813285</v>
       </c>
@@ -1206,9 +1318,9 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1220,16 +1332,16 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="1"/>
@@ -1243,20 +1355,19 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.93944090604782104</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.96274477243423395</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>109.671335458755</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.82785559097925</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -1267,20 +1378,19 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.92080742120742798</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.94908326864242498</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2433.6196835041001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>40.560328058401666</v>
       </c>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1289,20 +1399,19 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.90295028686523404</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.94612753391265803</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>108.15583109855601</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.8025971849759335</v>
       </c>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1311,20 +1420,19 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.89518636465072599</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>0.94317853450775102</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>892.82415103912297</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>14.880402517318716</v>
       </c>
-      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1333,321 +1441,317 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.84472054243087702</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0.91152995824813798</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>980.74256372451703</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>16.345709395408615</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.69099378585815396</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.77134513854980402</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>105.306485176086</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.7551080862680999</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>0.43361800909042297</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>0.59091860055923395</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>856.67123103141705</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>14.277853850523618</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0.38742238283157299</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>0.65634822845458896</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>382.44540905952402</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>6.3740901509920667</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0.75075757503509499</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>0.88244587182998602</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>109.713421821594</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.8285570303598999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.74431824684143</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.85313391685485795</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1048.13973736763</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>17.468995622793834</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>0.74015146493911699</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0.86278653144836404</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1762.32844185829</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>29.372140697638166</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>0.73560607433319003</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>0.86537396907806396</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>107.280821084976</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.7880136847496</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>0.72878783941268899</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.87003099918365401</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>104.568195343017</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.7428032557169499</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>0.704545497894287</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>0.845897436141967</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>844.00155830383301</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>14.066692638397218</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.70303034782409601</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.82510548830032304</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>1073.26638960838</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>17.887773160139666</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.409090906381607</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.79864764213562001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>2197.53743886947</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>36.62562398115783</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>0.94695341587066595</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>0.96494740247726396</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>1182.41111469268</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>19.706851911544668</v>
       </c>
@@ -1659,16 +1763,16 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>0.93835121393203702</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>0.95909196138381902</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>110.89331793785</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.8482219656308334</v>
       </c>
@@ -1680,16 +1784,16 @@
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>0.91469538211822499</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0.94901144504547097</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>3358.58547186851</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>55.976424531141831</v>
       </c>
@@ -1701,16 +1805,16 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>0.86594992876052801</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>0.922823786735534</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>109.131494522094</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.8188582420349</v>
       </c>
@@ -1722,16 +1826,16 @@
       <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>0.85663086175918501</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>0.91952174901962203</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>1411.4377002716001</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>23.523961671193334</v>
       </c>
@@ -1743,16 +1847,16 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>0.82437276840209905</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>0.90373444557189897</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>107.610623598098</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.7935103933016334</v>
       </c>
@@ -1764,16 +1868,16 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>0.65519714355468694</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>0.72629749774932795</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>462.55858159065201</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>7.7093096931775333</v>
       </c>
@@ -1785,24 +1889,24 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>0.60430109500884999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.71939325332641602</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>1027.71851158142</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>17.128641859690333</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1811,16 +1915,16 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1831,16 +1935,16 @@
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>0.90725326538085904</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>0.92311632633209195</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>868.70169472694397</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>14.478361578782399</v>
       </c>
@@ -1852,16 +1956,16 @@
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>0.87871581315994196</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>0.89374274015426602</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>77.990075349807697</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2998345891634615</v>
       </c>
@@ -1873,16 +1977,16 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>0.85136747360229403</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>0.84807652235031095</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>451.49744558334299</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>7.52495742638905</v>
       </c>
@@ -1894,16 +1998,16 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>0.80737221240997303</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>0.83707386255264205</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>76.832284212112398</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2805380702018734</v>
       </c>
@@ -1915,16 +2019,16 @@
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>0.75148630142211903</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>0.80666482448577803</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>775.41547179222096</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>12.923591196537016</v>
       </c>
@@ -1936,16 +2040,16 @@
       <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>0.72532701492309504</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>0.75702399015426602</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>528.65372586250305</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>8.8108954310417182</v>
       </c>
@@ -1957,16 +2061,16 @@
       <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>0.64209276437759399</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>0.64939260482787997</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>77.881063699722205</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2980177283287033</v>
       </c>
@@ -1978,23 +2082,23 @@
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>0.31866824626922602</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.41029298305511402</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>931.34530019760098</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>15.522421669960016</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2003,16 +2107,16 @@
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2023,16 +2127,16 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>0.92491692304611195</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>0.92570507526397705</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>821.14210486412003</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>13.685701747735333</v>
       </c>
@@ -2044,16 +2148,16 @@
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>0.78405320644378595</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>0.82475101947784402</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>113.528469800949</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.8921411633491501</v>
       </c>
@@ -2065,16 +2169,16 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>0.940199375152587</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>0.935452461242675</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>3115.1569023132301</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>51.919281705220506</v>
       </c>
@@ -2086,16 +2190,16 @@
       <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>0.52026575803756703</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>0.427418053150177</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>779.56661057472195</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>12.992776842912033</v>
       </c>
@@ -2107,16 +2211,16 @@
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>0.95149505138397195</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>0.94153755903243996</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>105.26470041275</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.7544116735458333</v>
       </c>
@@ -2128,16 +2232,16 @@
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>0.954817295074462</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>0.95378303527831998</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>106.926881790161</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.7821146965026835</v>
       </c>
@@ -2149,16 +2253,16 @@
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>0.950830578804016</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>0.95954728126525801</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>1241.4025042057001</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>20.690041736761668</v>
       </c>
@@ -2170,22 +2274,22 @@
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>0.976079702377319</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>0.97516560554504395</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1557.7065849304199</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>25.961776415507</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2194,16 +2298,16 @@
       <c r="B61" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2214,16 +2318,16 @@
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>0.99588721990585305</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>113.888423681259</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8981403946876501</v>
       </c>
@@ -2235,16 +2339,16 @@
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>1</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>0.99588710069656305</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>112.971438646316</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8828573107719333</v>
       </c>
@@ -2256,16 +2360,16 @@
       <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>1</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>0.99588716030120805</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>1295.15286707878</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>21.585881117979667</v>
       </c>
@@ -2277,16 +2381,16 @@
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>0.999999940395355</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>0.99588721990585305</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>3131.3088767528502</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>52.188481279214173</v>
       </c>
@@ -2298,16 +2402,16 @@
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>0.99767076969146695</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>0.99520784616470304</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>108.301090478897</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8050181746482832</v>
       </c>
@@ -2319,16 +2423,16 @@
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>0.87422358989715498</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>0.92243093252181996</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>538.94373631477299</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>8.9823956052462162</v>
       </c>
@@ -2340,16 +2444,16 @@
       <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>0.85636645555496205</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>0.84472441673278797</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>655.51305198669399</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>10.925217533111567</v>
       </c>
@@ -2361,23 +2465,23 @@
       <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>0.79891312122344904</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>0.856592416763305</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>1352.2488024234699</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>22.537480040391166</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="7"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -2386,16 +2490,16 @@
       <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2406,16 +2510,16 @@
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>0.97695034742355302</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>0.98620527982711703</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>91.875364542007404</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.5312560757001235</v>
       </c>
@@ -2427,16 +2531,16 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>0.97517728805541903</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>0.98538136482238703</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>1242.1465556621499</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>20.702442594369167</v>
       </c>
@@ -2448,16 +2552,16 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>0.94237589836120605</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>0.97389936447143499</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>93.391773700714097</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.5565295616785684</v>
       </c>
@@ -2469,16 +2573,16 @@
       <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>0.73315596580505304</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>0.87737858295440596</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>855.91082262992802</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>14.265180377165468</v>
       </c>
@@ -2490,16 +2594,16 @@
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>0.73138296604156405</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>0.85128754377365101</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>849.25788211822498</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>14.15429803530375</v>
       </c>
@@ -2511,16 +2615,16 @@
       <c r="B77" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>0.70212763547897294</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>0.80199611186981201</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>586.24226880073502</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>9.7707044800122507</v>
       </c>
@@ -2532,16 +2636,16 @@
       <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>0.61790782213211004</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>0.76977956295013406</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>88.715063810348497</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.4785843968391417</v>
       </c>
@@ -2553,24 +2657,24 @@
       <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>0.48847514390945401</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>0.644015192985534</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>575.10473346710205</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>9.5850788911183677</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2579,16 +2683,16 @@
       <c r="B81" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2599,16 +2703,16 @@
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>0.74307912588119496</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>0.863541960716247</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>2453.83528447151</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>40.897254741191837</v>
       </c>
@@ -2620,16 +2724,16 @@
       <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>0.71782416105270297</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>0.8655366897583</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>117.92793512344301</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9654655853907168</v>
       </c>
@@ -2641,16 +2745,16 @@
       <c r="B84" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>0.715881466865539</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>0.861591815948486</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>114.572572231292</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9095428705215334</v>
       </c>
@@ -2662,16 +2766,16 @@
       <c r="B85" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>0.64934432506561202</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>0.81187272071838301</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>904.35350084304798</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>15.072558347384133</v>
       </c>
@@ -2683,16 +2787,16 @@
       <c r="B86" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>0.634288430213928</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>0.82064723968505804</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>114.745672941207</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9124278823534502</v>
       </c>
@@ -2704,16 +2808,16 @@
       <c r="B87" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>0.62408941984176602</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>0.78663533926010099</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>1140.24845647811</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>19.004140941301834</v>
       </c>
@@ -2725,16 +2829,16 @@
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>0.58863526582717896</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>0.78446835279464699</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>1017.81706857681</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>16.963617809613499</v>
       </c>
@@ -2746,24 +2850,24 @@
       <c r="B89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>0.54249638319015503</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <v>0.75464594364166204</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>1741.06744813919</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>29.017790802319833</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2772,16 +2876,16 @@
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2792,16 +2896,16 @@
       <c r="B92" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>0.812500059604644</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>0.86887466907501198</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>126.567430973052</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>2.1094571828842001</v>
       </c>
@@ -2813,16 +2917,16 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>0.78611111640930098</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>0.87655127048492398</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>124.718294858932</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>2.0786382476488665</v>
       </c>
@@ -2834,16 +2938,16 @@
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>0.73055547475814797</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>0.78288257122039795</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>2752.7530605792999</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>45.879217676321666</v>
       </c>
@@ -2855,16 +2959,16 @@
       <c r="B95" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>0.61412036418914795</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <v>0.73846948146820002</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>110.674943208694</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>1.8445823868115667</v>
       </c>
@@ -2876,16 +2980,16 @@
       <c r="B96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>0.56111109256744296</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>0.70274507999420099</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>2045.38891410827</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>34.089815235137834</v>
       </c>
@@ -2897,16 +3001,16 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>0.52453702688217096</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <v>0.60659211874008101</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>867.66454505920399</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>14.461075750986733</v>
       </c>
@@ -2918,16 +3022,16 @@
       <c r="B98" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>0.466898113489151</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>0.66170954704284601</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>703.52683568000703</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>11.72544726133345</v>
       </c>
@@ -2939,23 +3043,23 @@
       <c r="B99" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>0.43634256720542902</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>0.65105760097503595</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>688.187507867813</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>11.469791797796884</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2964,16 +3068,16 @@
       <c r="B101" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2984,16 +3088,16 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>0.97161173820495605</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <v>0.98176521062850897</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>84.945127725601196</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.4157521287600199</v>
       </c>
@@ -3005,16 +3109,16 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <v>0.96153843402862504</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <v>0.98167622089385898</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>2350.3354308605099</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>39.172257181008497</v>
       </c>
@@ -3026,16 +3130,16 @@
       <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>0.96153843402862504</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>0.97928655147552401</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>92.228267908096299</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.5371377984682717</v>
       </c>
@@ -3047,16 +3151,16 @@
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>0.93498170375823897</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <v>0.96871513128280595</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>595.68803048133805</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>9.9281338413556348</v>
       </c>
@@ -3068,16 +3172,16 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>0.88919413089752197</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="6">
         <v>0.940493583679199</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>1068.1458363533</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>17.802430605888333</v>
       </c>
@@ -3089,16 +3193,16 @@
       <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>0.84798532724380404</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="6">
         <v>0.90424680709838801</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>75.352344989776597</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.2558724164962767</v>
       </c>
@@ -3110,16 +3214,16 @@
       <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>0.65476185083389205</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="6">
         <v>0.75834387540817205</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>486.80149435996998</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>8.1133582393328325</v>
       </c>
@@ -3131,23 +3235,23 @@
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>0.50915747880935602</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>0.59664332866668701</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>466.83917999267499</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>7.7806529998779164</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="7"/>
-      <c r="E110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -3156,16 +3260,16 @@
       <c r="B111" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3176,16 +3280,16 @@
       <c r="B112" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>0.96190476417541504</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="6">
         <v>0.972281694412231</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>61.378123044967602</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>1.0229687174161266</v>
       </c>
@@ -3197,16 +3301,16 @@
       <c r="B113" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <v>0.95238095521926802</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="6">
         <v>0.97396337985992398</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>58.573687076568604</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>0.97622811794281006</v>
       </c>
@@ -3218,16 +3322,16 @@
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>0.93333333730697599</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="6">
         <v>0.95816546678543002</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>1601.7748432159401</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>26.696247386932335</v>
       </c>
@@ -3239,16 +3343,16 @@
       <c r="B115" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>0.89523810148239102</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>0.95938479900360096</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>901.34210038185097</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>15.022368339697517</v>
       </c>
@@ -3260,16 +3364,16 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>0.795238137245178</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="6">
         <v>0.81196701526641801</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>53.489501237869199</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>0.89149168729782002</v>
       </c>
@@ -3281,16 +3385,16 @@
       <c r="B117" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>0.72380948066711404</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="6">
         <v>0.86238378286361606</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>1586.3387742042501</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>26.438979570070835</v>
       </c>
@@ -3302,16 +3406,16 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <v>0.68571430444717396</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="6">
         <v>0.79836130142211903</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>702.69510507583595</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>11.711585084597266</v>
       </c>
@@ -3323,24 +3427,24 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>0.56190478801727295</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="6">
         <v>0.74357098340988104</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>1275.6685445308599</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>21.261142408847665</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -3349,16 +3453,16 @@
       <c r="B121" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3369,16 +3473,16 @@
       <c r="B122" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <v>0.88888889551162698</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="6">
         <v>0.88848835229873602</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>79.156700849532996</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.3192783474922165</v>
       </c>
@@ -3390,16 +3494,16 @@
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>0.84444451332092196</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>0.85945940017700195</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>2522.22407960891</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>42.037067993481834</v>
       </c>
@@ -3411,16 +3515,16 @@
       <c r="B124" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>0.80370366573333696</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>0.81037890911102295</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>1130.0655522346401</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>18.834425870577334</v>
       </c>
@@ -3432,16 +3536,16 @@
       <c r="B125" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="6">
         <v>0.757407426834106</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="6">
         <v>0.77488517761230402</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>80.779645919799805</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.3463274319966634</v>
       </c>
@@ -3453,16 +3557,16 @@
       <c r="B126" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <v>0.68703711032867398</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="6">
         <v>0.73384958505630404</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>1023.65060949325</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>17.060843491554166</v>
       </c>
@@ -3474,16 +3578,16 @@
       <c r="B127" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <v>0.56481480598449696</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="6">
         <v>0.60095429420471103</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>77.492794275283799</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.29154657125473</v>
       </c>
@@ -3495,16 +3599,16 @@
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <v>0.54074072837829501</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="6">
         <v>0.46750926971435502</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>826.18771886825505</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>13.769795314470917</v>
       </c>
@@ -3516,24 +3620,24 @@
       <c r="B129" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <v>0.39537036418914701</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="6">
         <v>0.416018307209014</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>596.40290236473004</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>9.9400483727455011</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -3542,16 +3646,16 @@
       <c r="B131" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3562,16 +3666,16 @@
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <v>0.981481492519378</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="6">
         <v>0.97779607772827104</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>2671.8362052440598</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>44.53060342073433</v>
       </c>
@@ -3583,16 +3687,16 @@
       <c r="B133" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <v>0.967901170253753</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="6">
         <v>0.97598361968994096</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>1198.03114962577</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>19.967185827096166</v>
       </c>
@@ -3604,16 +3708,16 @@
       <c r="B134" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>0.96049380302429199</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="6">
         <v>0.967138171195983</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>85.911925077438298</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.4318654179573049</v>
       </c>
@@ -3625,16 +3729,16 @@
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="6">
         <v>0.94197529554366999</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>0.95398151874542203</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>84.329428195953298</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.405490469932555</v>
       </c>
@@ -3646,16 +3750,16 @@
       <c r="B136" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <v>0.89629626274108798</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="6">
         <v>0.92435491085052401</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>556.70462560653596</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>9.2784104267755989</v>
       </c>
@@ -3667,16 +3771,16 @@
       <c r="B137" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="6">
         <v>0.79259264469146695</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="6">
         <v>0.80871808528900102</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="5">
         <v>82.507948160171495</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.3751324693361915</v>
       </c>
@@ -3688,16 +3792,16 @@
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <v>0.62962961196899403</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="6">
         <v>0.68243527412414495</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>411.75117611885003</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>6.8625196019808339</v>
       </c>
@@ -3709,24 +3813,24 @@
       <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <v>0.44320988655090299</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="6">
         <v>0.49541243910789401</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>450.24697899818398</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="4">
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>7.5041163166363996</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -3735,16 +3839,16 @@
       <c r="B141" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3755,16 +3859,16 @@
       <c r="B142" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <v>0.99567902088165205</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="6">
         <v>0.99619770050048795</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>111.30586194992</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.8550976991653334</v>
       </c>
@@ -3776,16 +3880,16 @@
       <c r="B143" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <v>0.98950612545013406</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="6">
         <v>0.99369776248931796</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>1296.85741519927</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>21.614290253321165</v>
       </c>
@@ -3797,16 +3901,16 @@
       <c r="B144" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <v>0.98086416721343905</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>0.99007940292358398</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="5">
         <v>3421.05242586135</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>57.017540431022503</v>
       </c>
@@ -3818,16 +3922,16 @@
       <c r="B145" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="6">
         <v>0.97345674037933305</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="6">
         <v>0.98634493350982599</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>103.16787648200901</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.7194646080334834</v>
       </c>
@@ -3839,16 +3943,16 @@
       <c r="B146" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <v>0.88209879398345903</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="6">
         <v>0.95290935039520197</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>1124.3699114322601</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>18.739498523871003</v>
       </c>
@@ -3860,16 +3964,16 @@
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="6">
         <v>0.74845683574676503</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="6">
         <v>0.87310349941253595</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>712.99899268150295</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>11.883316544691716</v>
       </c>
@@ -3881,16 +3985,16 @@
       <c r="B148" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <v>0.67993831634521396</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>0.81901669502258301</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>111.87527012824999</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.8645878354708332</v>
       </c>
@@ -3902,23 +4006,416 @@
       <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="6">
         <v>0.38641974329948398</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="6">
         <v>0.68033170700073198</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>2575.16261291503</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="4">
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>42.919376881917167</v>
       </c>
     </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="7">
+        <v>0.51923072338104204</v>
+      </c>
+      <c r="D153" s="7">
+        <v>0.44741991162300099</v>
+      </c>
+      <c r="E153" s="7">
+        <v>1196.8814704418101</v>
+      </c>
+      <c r="F153" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>19.948024507363503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0.397893786430358</v>
+      </c>
+      <c r="D154" s="8">
+        <v>0.47239354252815202</v>
+      </c>
+      <c r="E154" s="8">
+        <v>74.673856019973698</v>
+      </c>
+      <c r="F154" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>1.2445642669995616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="7">
+        <v>0.39468866586685097</v>
+      </c>
+      <c r="D155" s="7">
+        <v>0.39272567629814098</v>
+      </c>
+      <c r="E155" s="7">
+        <v>2125.7429697513498</v>
+      </c>
+      <c r="F155" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>35.429049495855828</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0.33470696210861201</v>
+      </c>
+      <c r="D156" s="8">
+        <v>0.53802448511123602</v>
+      </c>
+      <c r="E156" s="8">
+        <v>3255.1773841381</v>
+      </c>
+      <c r="F156" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>54.25295640230167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="7">
+        <v>0.26831501722335799</v>
+      </c>
+      <c r="D157" s="7">
+        <v>0.29641234874725297</v>
+      </c>
+      <c r="E157" s="7">
+        <v>623.42287731170597</v>
+      </c>
+      <c r="F157" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>10.390381288528433</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="8">
+        <v>0.26282051205634999</v>
+      </c>
+      <c r="D158" s="8">
+        <v>0.292374968528747</v>
+      </c>
+      <c r="E158" s="8">
+        <v>70.561142206192002</v>
+      </c>
+      <c r="F158" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>1.1760190367698666</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0.20650185644626601</v>
+      </c>
+      <c r="D159" s="7">
+        <v>0.366176337003707</v>
+      </c>
+      <c r="E159" s="7">
+        <v>1746.9722952842701</v>
+      </c>
+      <c r="F159" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>29.116204921404503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="9">
+        <v>0.25366303324699402</v>
+      </c>
+      <c r="D160" s="8">
+        <v>0.30778047442436202</v>
+      </c>
+      <c r="E160" s="8">
+        <v>73.341411590576101</v>
+      </c>
+      <c r="F160" s="4">
+        <f>Table16[[#This Row],[ Time]]/60</f>
+        <v>1.2223568598429351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.71923077106475797</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.86048591136932295</v>
+      </c>
+      <c r="E164" s="3">
+        <v>469.75844621658302</v>
+      </c>
+      <c r="F164" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>7.8293074369430506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.57692313200000001</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.78379428386688199</v>
+      </c>
+      <c r="E165" s="3">
+        <v>610.71264171600296</v>
+      </c>
+      <c r="F165" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>10.178544028600049</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.55000001200000004</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.79404950141906705</v>
+      </c>
+      <c r="E166" s="3">
+        <v>66.858585834503103</v>
+      </c>
+      <c r="F166" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>1.114309763908385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.48461538553237898</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.78681993484497004</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1980.2090418338701</v>
+      </c>
+      <c r="F167" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>33.003484030564501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.43461540341377197</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.74091565608978205</v>
+      </c>
+      <c r="E168" s="3">
+        <v>72.235621213912907</v>
+      </c>
+      <c r="F168" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>1.2039270202318817</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.415384590625762</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.710463285</v>
+      </c>
+      <c r="E169" s="3">
+        <v>74.6358127593994</v>
+      </c>
+      <c r="F169" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>1.2439302126566567</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.40192309021949701</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.72434091567993097</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1457.83468008041</v>
+      </c>
+      <c r="F170" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>24.297244668006833</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.33076924085616999</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.63799077272415095</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1015.00988864898</v>
+      </c>
+      <c r="F171" s="4">
+        <f>Table17[[#This Row],[ Time]]/60</f>
+        <v>16.916831477483001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="15">
+  <tableParts count="17">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3934,6 +4431,8 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/anomalib_result.xlsx
+++ b/anomalib_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\repo\GingerPlantAnomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1A578-21C0-4417-B18A-F7ED51F89592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E274BF6-5B1D-45BC-BA49-297390040127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E60984-6E81-482A-A065-4B30FAF80B89}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F7E60984-6E81-482A-A065-4B30FAF80B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="58">
   <si>
     <t>dataset_type</t>
   </si>
@@ -136,6 +158,81 @@
   <si>
     <t>Week 3 Only</t>
   </si>
+  <si>
+    <t>Week 6-9</t>
+  </si>
+  <si>
+    <t>week6_abod</t>
+  </si>
+  <si>
+    <t>week6_cluster</t>
+  </si>
+  <si>
+    <t>week6_cof</t>
+  </si>
+  <si>
+    <t>week6_histogram</t>
+  </si>
+  <si>
+    <t>week6_iforest</t>
+  </si>
+  <si>
+    <t>week6_knn</t>
+  </si>
+  <si>
+    <t>week6_lof</t>
+  </si>
+  <si>
+    <t>week6_svm</t>
+  </si>
+  <si>
+    <t>week6_pca</t>
+  </si>
+  <si>
+    <t>week6_sos</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>ROCAUC</t>
+  </si>
+  <si>
+    <t>Padim</t>
+  </si>
+  <si>
+    <t>ReverseDistillation</t>
+  </si>
+  <si>
+    <t>Fastflow</t>
+  </si>
+  <si>
+    <t>Patchcore</t>
+  </si>
+  <si>
+    <t>Stfpm</t>
+  </si>
+  <si>
+    <t>Dfkde</t>
+  </si>
+  <si>
+    <t>Ganomaly</t>
+  </si>
+  <si>
+    <t>Draem</t>
+  </si>
 </sst>
 </file>
 
@@ -199,16 +296,46 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="72">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -231,12 +358,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -247,18 +368,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -453,10 +562,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{412A4BFD-4200-4F62-91B3-5BE3B73F272B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{FCD22061-F542-4CAB-BED4-92779DBF88C9}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{F1406109-A015-4763-9924-F60D9D163C54}" name=" AUROC" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{AA40D5FA-A298-4FEA-A507-4F5BA132DB6D}" name=" AUPR" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{9C7F8D13-DFE3-4E75-AAE3-3C1BE8A5CE15}" name=" Time" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{09768EB7-3366-4008-B4B4-5A5E35852819}" name="Min" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{F1406109-A015-4763-9924-F60D9D163C54}" name=" AUROC" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AA40D5FA-A298-4FEA-A507-4F5BA132DB6D}" name=" AUPR" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9C7F8D13-DFE3-4E75-AAE3-3C1BE8A5CE15}" name=" Time" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{09768EB7-3366-4008-B4B4-5A5E35852819}" name="Min" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -473,10 +582,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09322892-6F55-4DD8-83C6-B09F3166E0CE}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{D268B2F8-1329-44BA-AAE0-B4A70BEF8C7A}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{9227229D-E55B-4CB6-BBBB-989F124993E0}" name=" AUROC" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D3119362-9DB5-41BC-A254-8E92573E4EE6}" name=" AUPR" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{6D106044-E883-4830-82DF-BDEE87AD8E30}" name=" Time" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{56517E34-75A6-4E85-884A-F5671F6AAE43}" name="Min" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{9227229D-E55B-4CB6-BBBB-989F124993E0}" name=" AUROC" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D3119362-9DB5-41BC-A254-8E92573E4EE6}" name=" AUPR" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{6D106044-E883-4830-82DF-BDEE87AD8E30}" name=" Time" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{56517E34-75A6-4E85-884A-F5671F6AAE43}" name="Min" dataDxfId="36">
       <calculatedColumnFormula>Table10[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -493,10 +602,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{788DEC79-EA9C-48F0-962E-9ABB48597337}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{DD023CB2-637D-46BA-8E25-844A5C097B2C}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{495B95CF-1BC4-43A9-80CA-285333BF37FC}" name=" AUROC" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{08F00F97-658F-4C99-B4A7-982977FE113A}" name=" AUPR" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{85A2B208-486B-4164-8B21-DFC1049F74AA}" name=" Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{C10B3EA8-259C-4C87-B78C-96BA2D709768}" name="Min" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{495B95CF-1BC4-43A9-80CA-285333BF37FC}" name=" AUROC" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{08F00F97-658F-4C99-B4A7-982977FE113A}" name=" AUPR" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{85A2B208-486B-4164-8B21-DFC1049F74AA}" name=" Time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{C10B3EA8-259C-4C87-B78C-96BA2D709768}" name="Min" dataDxfId="32">
       <calculatedColumnFormula>Table11[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -513,10 +622,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{771E30E1-DEB2-4F2A-9458-1D5707D42569}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{C8BA4940-1A92-4B18-AC8E-CCB8449A78A0}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{79F5F3B6-78F9-4B0A-8F9A-0D0E3E630A52}" name=" AUROC" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7091E530-DC61-4DC7-AFC2-888477E7471C}" name=" AUPR" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{0038D7FD-12FA-4341-B5CF-D55014375924}" name=" Time" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{951CFA74-9593-4598-B9CE-3A5FA27FE300}" name="Min" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{79F5F3B6-78F9-4B0A-8F9A-0D0E3E630A52}" name=" AUROC" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{7091E530-DC61-4DC7-AFC2-888477E7471C}" name=" AUPR" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{0038D7FD-12FA-4341-B5CF-D55014375924}" name=" Time" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{951CFA74-9593-4598-B9CE-3A5FA27FE300}" name="Min" dataDxfId="28">
       <calculatedColumnFormula>Table12[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -533,10 +642,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DCF5EB35-C6D9-40B0-A3A3-3C071733435A}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{A3C99B53-3641-457B-A1D4-32B2629F64CF}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{498CEC75-5948-4B72-892C-028683AD6984}" name=" AUROC" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{ADCFDF95-FA9F-405E-9705-1D12CEBFBD39}" name=" AUPR" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E4756C44-8452-480B-90D6-B75DBD9127E6}" name=" Time" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{10E367A9-2483-4C28-AE32-E2EE04E4B708}" name="min" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{498CEC75-5948-4B72-892C-028683AD6984}" name=" AUROC" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{ADCFDF95-FA9F-405E-9705-1D12CEBFBD39}" name=" AUPR" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{E4756C44-8452-480B-90D6-B75DBD9127E6}" name=" Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{10E367A9-2483-4C28-AE32-E2EE04E4B708}" name="min" dataDxfId="24">
       <calculatedColumnFormula>Table13[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -553,10 +662,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0F113812-B1AA-4999-AD9B-D1B5B8992C2B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{8634DFB4-BE99-47A8-AE2D-840539D4E868}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{BF74B8F1-9C9F-4D71-8F64-A321B480DEDF}" name=" AUROC" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{AD90DBCF-8B6D-41F1-9FAE-F4CE49B5CD24}" name=" AUPR" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{F09C9B83-D3FB-4FA8-AD4C-63228383B557}" name=" Time" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{76F0E7D2-DF7D-4EFC-80B4-F0DBECB9439A}" name="Min" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{BF74B8F1-9C9F-4D71-8F64-A321B480DEDF}" name=" AUROC" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{AD90DBCF-8B6D-41F1-9FAE-F4CE49B5CD24}" name=" AUPR" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{F09C9B83-D3FB-4FA8-AD4C-63228383B557}" name=" Time" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{76F0E7D2-DF7D-4EFC-80B4-F0DBECB9439A}" name="Min" dataDxfId="20">
       <calculatedColumnFormula>Table14[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -573,10 +682,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AE030CBA-D7B2-4315-90D2-3D222D4E0250}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{4A28F337-2467-462D-B525-DF7CA8AA53D0}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{730AFA92-CE8C-49C7-92AD-6EE5C25B6B3D}" name=" AUROC" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5731D8F0-2896-4B31-9996-1119ACEE35B2}" name=" AUPR" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{494C58A0-15E9-48ED-95FA-86267562BD67}" name=" Time" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{DC081A22-FC55-41D3-971C-CF626C271116}" name="Min" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{730AFA92-CE8C-49C7-92AD-6EE5C25B6B3D}" name=" AUROC" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5731D8F0-2896-4B31-9996-1119ACEE35B2}" name=" AUPR" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{494C58A0-15E9-48ED-95FA-86267562BD67}" name=" Time" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{DC081A22-FC55-41D3-971C-CF626C271116}" name="Min" dataDxfId="16">
       <calculatedColumnFormula>Table15[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -593,10 +702,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{01C52D0D-BE5F-487E-8154-0C4DC82B9C76}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{CE53E5FE-36A6-4738-B143-45A81E3CC907}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{B63849FA-8C37-4118-95CB-28F1CD1C098B}" name=" AUROC" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E6537534-FC81-481F-8128-DA39E4FF7030}" name=" AUPR" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D7732EA2-9C64-448D-BC13-45FA22198722}" name=" Time" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AE77A438-4E11-4717-A1C3-4361426D63BA}" name="Min" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{B63849FA-8C37-4118-95CB-28F1CD1C098B}" name=" AUROC" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{E6537534-FC81-481F-8128-DA39E4FF7030}" name=" AUPR" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D7732EA2-9C64-448D-BC13-45FA22198722}" name=" Time" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{AE77A438-4E11-4717-A1C3-4361426D63BA}" name="Min" dataDxfId="12">
       <calculatedColumnFormula>Table16[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -613,12 +722,50 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{807A03FC-9BDA-4D9D-8742-67AFFC5CA13D}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{0844F13C-6A59-4797-B3B9-10343A7794DC}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{F3E15837-15C3-4EA8-98C9-47E8454222F5}" name=" AUROC" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{796924E3-C0D3-4FCD-905F-086597C3B5CC}" name=" AUPR" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C3BD027C-FAD5-4C86-A7D0-A89A3BFFBF0B}" name=" Time" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D604FB19-BE92-4947-BD70-CF3E8DB83E92}" name="Min" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{F3E15837-15C3-4EA8-98C9-47E8454222F5}" name=" AUROC" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{796924E3-C0D3-4FCD-905F-086597C3B5CC}" name=" AUPR" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C3BD027C-FAD5-4C86-A7D0-A89A3BFFBF0B}" name=" Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D604FB19-BE92-4947-BD70-CF3E8DB83E92}" name="Min" dataDxfId="8">
       <calculatedColumnFormula>Table17[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A3C2C5CF-6F24-4B92-84A2-85C1C29CEFC6}" name="Table19" displayName="Table19" ref="A174:F182" totalsRowShown="0">
+  <autoFilter ref="A174:F182" xr:uid="{A3C2C5CF-6F24-4B92-84A2-85C1C29CEFC6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A175:F182">
+    <sortCondition descending="1" ref="C174:C182"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{17309BE8-B951-4DC7-B028-970901BBDF57}" name="dataset_type"/>
+    <tableColumn id="2" xr3:uid="{A1362488-DD1B-4E7D-9360-657FAB1461EF}" name=" model_type"/>
+    <tableColumn id="3" xr3:uid="{C6C3E7AA-5907-4CD5-959E-EF741F01F0C7}" name=" AUROC" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E6781829-25B4-4796-AEC7-0F308C1C22A6}" name=" AUPR" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{426CEF76-F2C1-4E59-B1C8-0F8E48AC8FF5}" name=" Time" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F5785712-6FA7-46BC-A863-B3A2C92C8AB8}" name="Min" dataDxfId="4">
+      <calculatedColumnFormula>Table19[[#This Row],[ Time]]/60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{07BC5CFC-462C-4525-99B6-B66DC1B20451}" name="Table20" displayName="Table20" ref="A184:F194" totalsRowShown="0">
+  <autoFilter ref="A184:F194" xr:uid="{07BC5CFC-462C-4525-99B6-B66DC1B20451}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A185:F194">
+    <sortCondition descending="1" ref="F184:F194"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FC86A785-56C2-4025-9B3D-1294F9C80338}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{002C126A-4A81-43B3-98AE-A9788857E571}" name="Accuracy"/>
+    <tableColumn id="3" xr3:uid="{5BE67E08-0C94-498A-B94A-2FC50A760519}" name="Precision"/>
+    <tableColumn id="4" xr3:uid="{94D08C5A-7C7F-438B-9A4C-0779387AFBC2}" name="Recall"/>
+    <tableColumn id="5" xr3:uid="{53B8C15A-81CE-40C7-AFBB-299DB22D9AF3}" name="F1-score"/>
+    <tableColumn id="6" xr3:uid="{87D8BA2E-648C-4174-B5A9-50FD08AC8D96}" name="ROCAUC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -633,10 +780,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9D351D73-B4DB-4D20-BD4B-106147539440}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{B4618451-A2BD-480B-B231-64A285D5F099}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{0ACC28F9-BF80-4C75-96F7-5A9D0908ED78}" name=" AUROC" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{97F615CD-D527-41DB-A8B2-BE68762598DC}" name=" AUPR" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{21F8CB07-3B9A-4F07-83FF-70DCD0E04E12}" name=" Time" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{AB14E369-02D2-4C0E-B2AF-6FDE920DBB3A}" name="Min" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{0ACC28F9-BF80-4C75-96F7-5A9D0908ED78}" name=" AUROC" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{97F615CD-D527-41DB-A8B2-BE68762598DC}" name=" AUPR" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{21F8CB07-3B9A-4F07-83FF-70DCD0E04E12}" name=" Time" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{AB14E369-02D2-4C0E-B2AF-6FDE920DBB3A}" name="Min" dataDxfId="68">
       <calculatedColumnFormula>Table2[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -653,10 +800,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{50D2DEBB-6B8C-4750-9EEC-07BEFF68865B}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{6C94CE1E-236C-4B0D-B851-5FFA40C37DF8}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{8F7CB299-9008-4DEF-B3E9-353128FA1FF6}" name=" AUROC" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{F84B1B67-C3A3-4468-9DD3-BA56A4C1063D}" name=" AUPR" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{136F60BA-3A2D-4063-ACC8-E74EDB98DF35}" name=" Time" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{84E485F0-6ACE-45B3-8B20-D0C747037F18}" name="Min" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{8F7CB299-9008-4DEF-B3E9-353128FA1FF6}" name=" AUROC" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F84B1B67-C3A3-4468-9DD3-BA56A4C1063D}" name=" AUPR" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{136F60BA-3A2D-4063-ACC8-E74EDB98DF35}" name=" Time" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{84E485F0-6ACE-45B3-8B20-D0C747037F18}" name="Min" dataDxfId="64">
       <calculatedColumnFormula>Table3[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -673,10 +820,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D5B3AEAC-D75B-4D71-A072-1D4396BAD03E}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{88F3F676-D711-48C2-A389-E6B0D34BD0D2}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{338F8B8C-C0A0-448F-8A6B-7BFF11360480}" name=" AUROC" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{904515C7-76A9-4464-8CB3-BAB58C060222}" name=" AUPR" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{3313CFEA-4092-4C33-A974-F47CCA2C0258}" name=" Time" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{77C31A1E-2AFA-46E0-ADA0-5397053A8D3B}" name="Min" dataDxfId="52">
+    <tableColumn id="3" xr3:uid="{338F8B8C-C0A0-448F-8A6B-7BFF11360480}" name=" AUROC" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{904515C7-76A9-4464-8CB3-BAB58C060222}" name=" AUPR" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{3313CFEA-4092-4C33-A974-F47CCA2C0258}" name=" Time" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{77C31A1E-2AFA-46E0-ADA0-5397053A8D3B}" name="Min" dataDxfId="60">
       <calculatedColumnFormula>Table4[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -693,10 +840,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F190D1BD-66B4-404E-B24E-7C37B7BCCFDE}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{2E2013B6-6813-4146-9FE3-D82F1358AF54}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{8EAF5964-118C-49C3-AB3E-1B0E3EA8E8C3}" name=" AUROC" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{C8605CCD-E6A8-4531-B62F-CAC9A732AC34}" name=" AUPR" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B4DE1BA1-CB53-4936-A92E-6BBB88B283EA}" name=" Time" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{DEEF9236-EB2C-4D58-814F-2C242D11D80C}" name="Min" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{8EAF5964-118C-49C3-AB3E-1B0E3EA8E8C3}" name=" AUROC" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{C8605CCD-E6A8-4531-B62F-CAC9A732AC34}" name=" AUPR" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{B4DE1BA1-CB53-4936-A92E-6BBB88B283EA}" name=" Time" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{DEEF9236-EB2C-4D58-814F-2C242D11D80C}" name="Min" dataDxfId="56">
       <calculatedColumnFormula>Table5[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -710,10 +857,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3E982D0C-AF51-4165-A5A7-41AC8610B9A1}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{67BAECCA-7C68-459A-B947-0F7D39A839F6}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{CDC9A06C-5275-47DA-B66E-37CC2DEFE9B5}" name=" AUROC" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{33592822-CB05-4C71-B77D-8B0E377F2DCD}" name=" AUPR" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{480F2693-59D1-4101-B6D0-9630DE801FCF}" name=" Time" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{5DAA2575-253B-48BC-B172-C6B051D1D439}" name="Min" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{CDC9A06C-5275-47DA-B66E-37CC2DEFE9B5}" name=" AUROC" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{33592822-CB05-4C71-B77D-8B0E377F2DCD}" name=" AUPR" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{480F2693-59D1-4101-B6D0-9630DE801FCF}" name=" Time" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{5DAA2575-253B-48BC-B172-C6B051D1D439}" name="Min" dataDxfId="52">
       <calculatedColumnFormula>Table6[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -730,10 +877,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{288432C1-4F99-49D2-993A-F5C884882D4C}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{3A9D9B06-5436-400A-AFEF-013C96F6081B}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{AFB0D037-7529-4AC5-8EF4-48CE91280757}" name=" AUROC" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{BD0E7BEB-F44F-480C-9EBB-7F435BDE4D01}" name=" AUPR" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{28991AAE-F9B1-4D75-8DA8-6F37B58A93AF}" name=" Time" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{C5FE48EF-BD37-4628-849C-9D714BB1B9F8}" name="Min" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{AFB0D037-7529-4AC5-8EF4-48CE91280757}" name=" AUROC" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{BD0E7BEB-F44F-480C-9EBB-7F435BDE4D01}" name=" AUPR" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{28991AAE-F9B1-4D75-8DA8-6F37B58A93AF}" name=" Time" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{C5FE48EF-BD37-4628-849C-9D714BB1B9F8}" name="Min" dataDxfId="48">
       <calculatedColumnFormula>Table7[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -750,10 +897,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E0ADBC17-F1BD-42D5-8383-F70DA54D7E06}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{F5F43D64-1812-4FAC-91E6-72D7DA7D58AD}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{C444C37D-0DD2-47A6-B359-F11EA7473DC3}" name=" AUROC" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{CEB218C2-B46F-4119-B6DE-2053F93BDA8E}" name=" AUPR" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{91684553-201C-4771-913F-FCFEEF909C89}" name=" Time" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{4FE27E77-210A-4B6D-9B8C-94A74D25DBC9}" name="Min" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{C444C37D-0DD2-47A6-B359-F11EA7473DC3}" name=" AUROC" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{CEB218C2-B46F-4119-B6DE-2053F93BDA8E}" name=" AUPR" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{91684553-201C-4771-913F-FCFEEF909C89}" name=" Time" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{4FE27E77-210A-4B6D-9B8C-94A74D25DBC9}" name="Min" dataDxfId="44">
       <calculatedColumnFormula>Table8[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -770,10 +917,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61A22ACC-804A-4800-90D1-87AC5AE04256}" name="dataset_type"/>
     <tableColumn id="2" xr3:uid="{10923F52-D7FB-4454-B694-AA3112576B4C}" name=" model_type"/>
-    <tableColumn id="3" xr3:uid="{7BF46A77-655D-4C6A-848D-43E64E45C909}" name=" AUROC" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5FD93AB2-BCC2-4EBB-BA84-6C2437D5C118}" name=" AUPR" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{EA4B5AF4-6597-476C-A161-245277488A73}" name=" Time" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{044BE43A-F180-486C-B7AE-15ED9EFA4699}" name="Min" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{7BF46A77-655D-4C6A-848D-43E64E45C909}" name=" AUROC" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{5FD93AB2-BCC2-4EBB-BA84-6C2437D5C118}" name=" AUPR" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{EA4B5AF4-6597-476C-A161-245277488A73}" name=" Time" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{044BE43A-F180-486C-B7AE-15ED9EFA4699}" name="Min" dataDxfId="40">
       <calculatedColumnFormula>Table9[[#This Row],[ Time]]/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1098,23 +1245,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2A1D0D-C06E-45CE-8F71-58D6403182D9}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView tabSelected="1" topLeftCell="E70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1280,11 @@
       <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1154,8 +1304,23 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2822045286496466</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>A2</f>
+        <v>bottle</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B2)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J2" s="3">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1175,8 +1340,23 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>13.734569354852033</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">A3</f>
+        <v>bottle</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B3)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J66" si="1">C3</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1196,10 +1376,25 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>47.32609894673017</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B4)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.999999940395355</v>
+      </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1219,11 +1414,26 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2940359115600584</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B5)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99864125251769997</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1243,11 +1453,26 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>19.187970280647168</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B6)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99728256464004505</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1267,10 +1492,25 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>1.2800688584645585</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B7)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98641306161880404</v>
+      </c>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1290,10 +1530,25 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>32.642779608567501</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B8)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91711956262588501</v>
+      </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1313,19 +1568,43 @@
         <f>Table1[[#This Row],[ Time]]/60</f>
         <v>13.584641575813285</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>bottle</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B9)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86684781312942505</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
-      <c r="J10" s="1"/>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B10)), ""))</f>
+        <v/>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1344,11 +1623,23 @@
       <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B11)), ""))</f>
+        <v/>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1368,10 +1659,22 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.82785559097925</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B12)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93944090604782104</v>
+      </c>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1391,8 +1694,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>40.560328058401666</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I13" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B13)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92080742120742798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1727,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.8025971849759335</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B14)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90295028686523404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1760,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>14.880402517318716</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B15)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89518636465072599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1454,8 +1793,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>16.345709395408615</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B16)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84472054243087702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1475,8 +1826,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>1.7551080862680999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B17)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69099378585815396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1496,8 +1859,20 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>14.277853850523618</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B18)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43361800909042297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1517,13 +1892,37 @@
         <f>Table2[[#This Row],[ Time]]/60</f>
         <v>6.3740901509920667</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>cable</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B19)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38742238283157299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B20)), ""))</f>
+        <v/>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1542,8 +1941,20 @@
       <c r="F21" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B21)), ""))</f>
+        <v/>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1563,8 +1974,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.8285570303598999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B22)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75075757503509499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1584,8 +2007,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>17.468995622793834</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B23)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74431824684143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1605,8 +2040,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>29.372140697638166</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B24)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74015146493911699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +2073,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.7880136847496</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I25" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B25)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.73560607433319003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1647,8 +2106,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>1.7428032557169499</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I26" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B26)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72878783941268899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1668,8 +2139,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>14.066692638397218</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I27" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B27)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.704545497894287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1689,8 +2172,20 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>17.887773160139666</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I28" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B28)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70303034782409601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1710,12 +2205,36 @@
         <f>Table3[[#This Row],[ Time]]/60</f>
         <v>36.62562398115783</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>capsule</v>
+      </c>
+      <c r="I29" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B29)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.409090906381607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B30)), ""))</f>
+        <v/>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1734,8 +2253,20 @@
       <c r="F31" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I31" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B31)), ""))</f>
+        <v/>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1755,8 +2286,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>19.706851911544668</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I32" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B32)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94695341587066595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1776,8 +2319,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.8482219656308334</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I33" t="str" cm="1">
+        <f t="array" ref="I33">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B33)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93835121393203702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1797,8 +2352,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>55.976424531141831</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I34" t="str" cm="1">
+        <f t="array" ref="I34">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B34)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91469538211822499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1818,8 +2385,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.8188582420349</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I35" t="str" cm="1">
+        <f t="array" ref="I35">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B35)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86594992876052801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1839,8 +2418,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>23.523961671193334</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I36" t="str" cm="1">
+        <f t="array" ref="I36">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B36)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85663086175918501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1860,8 +2451,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>1.7935103933016334</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I37" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B37)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.82437276840209905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1881,8 +2484,20 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>7.7093096931775333</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I38" t="str" cm="1">
+        <f t="array" ref="I38">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B38)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65519714355468694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1902,13 +2517,37 @@
         <f>Table4[[#This Row],[ Time]]/60</f>
         <v>17.128641859690333</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>carpet</v>
+      </c>
+      <c r="I39" t="str" cm="1">
+        <f t="array" ref="I39">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B39)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60430109500884999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="str" cm="1">
+        <f t="array" ref="I40">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B40)), ""))</f>
+        <v/>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1927,8 +2566,20 @@
       <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I41" t="str" cm="1">
+        <f t="array" ref="I41">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B41)), ""))</f>
+        <v/>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1948,8 +2599,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>14.478361578782399</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I42" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B42)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90725326538085904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1969,8 +2632,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2998345891634615</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I43" t="str" cm="1">
+        <f t="array" ref="I43">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B43)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87871581315994196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1990,8 +2665,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>7.52495742638905</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I44" t="str" cm="1">
+        <f t="array" ref="I44">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B44)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85136747360229403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2011,8 +2698,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2805380702018734</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I45" t="str" cm="1">
+        <f t="array" ref="I45">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B45)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80737221240997303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2032,8 +2731,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>12.923591196537016</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I46" t="str" cm="1">
+        <f t="array" ref="I46">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B46)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75148630142211903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2053,8 +2764,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>8.8108954310417182</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I47" t="str" cm="1">
+        <f t="array" ref="I47">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B47)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72532701492309504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2074,8 +2797,20 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>1.2980177283287033</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I48" t="str" cm="1">
+        <f t="array" ref="I48">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B48)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64209276437759399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2095,12 +2830,36 @@
         <f>Table5[[#This Row],[ Time]]/60</f>
         <v>15.522421669960016</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>grid</v>
+      </c>
+      <c r="I49" t="str" cm="1">
+        <f t="array" ref="I49">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B49)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31866824626922602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="str" cm="1">
+        <f t="array" ref="I50">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B50)), ""))</f>
+        <v/>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2119,8 +2878,20 @@
       <c r="F51" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I51" t="str" cm="1">
+        <f t="array" ref="I51">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B51)), ""))</f>
+        <v/>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2140,8 +2911,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>13.685701747735333</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I52" t="str" cm="1">
+        <f t="array" ref="I52">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B52)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="1"/>
+        <v>0.92491692304611195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2161,8 +2944,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.8921411633491501</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I53" t="str" cm="1">
+        <f t="array" ref="I53">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B53)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78405320644378595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2182,8 +2977,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>51.919281705220506</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I54" t="str" cm="1">
+        <f t="array" ref="I54">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B54)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.940199375152587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -2203,8 +3010,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>12.992776842912033</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I55" t="str" cm="1">
+        <f t="array" ref="I55">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B55)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52026575803756703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2224,8 +3043,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.7544116735458333</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I56" t="str" cm="1">
+        <f t="array" ref="I56">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B56)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95149505138397195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2245,8 +3076,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>1.7821146965026835</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I57" t="str" cm="1">
+        <f t="array" ref="I57">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B57)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="1"/>
+        <v>0.954817295074462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2266,8 +3109,20 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>20.690041736761668</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I58" t="str" cm="1">
+        <f t="array" ref="I58">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B58)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="1"/>
+        <v>0.950830578804016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2287,11 +3142,35 @@
         <f>Table6[[#This Row],[ Time]]/60</f>
         <v>25.961776415507</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>hazelnut</v>
+      </c>
+      <c r="I59" t="str" cm="1">
+        <f t="array" ref="I59">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B59)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.976079702377319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="str" cm="1">
+        <f t="array" ref="I60">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B60)), ""))</f>
+        <v/>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2310,8 +3189,20 @@
       <c r="F61" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I61" t="str" cm="1">
+        <f t="array" ref="I61">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B61)), ""))</f>
+        <v/>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2331,8 +3222,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8981403946876501</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>leather</v>
+      </c>
+      <c r="I62" t="str" cm="1">
+        <f t="array" ref="I62">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B62)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2352,8 +3255,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8828573107719333</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>leather</v>
+      </c>
+      <c r="I63" t="str" cm="1">
+        <f t="array" ref="I63">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B63)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2373,8 +3288,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>21.585881117979667</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>leather</v>
+      </c>
+      <c r="I64" t="str" cm="1">
+        <f t="array" ref="I64">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B64)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -2394,8 +3321,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>52.188481279214173</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>leather</v>
+      </c>
+      <c r="I65" t="str" cm="1">
+        <f t="array" ref="I65">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B65)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.999999940395355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2415,8 +3354,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>1.8050181746482832</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>leather</v>
+      </c>
+      <c r="I66" t="str" cm="1">
+        <f t="array" ref="I66">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B66)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99767076969146695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2436,8 +3387,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>8.9823956052462162</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="2">A67</f>
+        <v>leather</v>
+      </c>
+      <c r="I67" t="str" cm="1">
+        <f t="array" ref="I67">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B67)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" ref="J67:J130" si="3">C67</f>
+        <v>0.87422358989715498</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2457,8 +3420,20 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>10.925217533111567</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>leather</v>
+      </c>
+      <c r="I68" t="str" cm="1">
+        <f t="array" ref="I68">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B68)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85636645555496205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2478,12 +3453,36 @@
         <f>Table7[[#This Row],[ Time]]/60</f>
         <v>22.537480040391166</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>leather</v>
+      </c>
+      <c r="I69" t="str" cm="1">
+        <f t="array" ref="I69">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B69)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79891312122344904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
       <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="str" cm="1">
+        <f t="array" ref="I70">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B70)), ""))</f>
+        <v/>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2502,8 +3501,20 @@
       <c r="F71" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I71" t="str" cm="1">
+        <f t="array" ref="I71">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B71)), ""))</f>
+        <v/>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2523,8 +3534,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.5312560757001235</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I72" t="str" cm="1">
+        <f t="array" ref="I72">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B72)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97695034742355302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2544,8 +3567,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>20.702442594369167</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I73" t="str" cm="1">
+        <f t="array" ref="I73">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B73)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97517728805541903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2565,8 +3600,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.5565295616785684</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I74" t="str" cm="1">
+        <f t="array" ref="I74">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B74)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94237589836120605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2586,8 +3633,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>14.265180377165468</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I75" t="str" cm="1">
+        <f t="array" ref="I75">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B75)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73315596580505304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2607,8 +3666,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>14.15429803530375</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I76" t="str" cm="1">
+        <f t="array" ref="I76">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B76)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73138296604156405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2628,8 +3699,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>9.7707044800122507</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I77" t="str" cm="1">
+        <f t="array" ref="I77">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B77)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70212763547897294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2649,8 +3732,20 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>1.4785843968391417</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I78" t="str" cm="1">
+        <f t="array" ref="I78">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B78)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61790782213211004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2670,13 +3765,37 @@
         <f>Table8[[#This Row],[ Time]]/60</f>
         <v>9.5850788911183677</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>metal_nut</v>
+      </c>
+      <c r="I79" t="str" cm="1">
+        <f t="array" ref="I79">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B79)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48847514390945401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="str" cm="1">
+        <f t="array" ref="I80">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B80)), ""))</f>
+        <v/>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2695,8 +3814,20 @@
       <c r="F81" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I81" t="str" cm="1">
+        <f t="array" ref="I81">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B81)), ""))</f>
+        <v/>
+      </c>
+      <c r="J81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2716,8 +3847,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>40.897254741191837</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I82" t="str" cm="1">
+        <f t="array" ref="I82">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B82)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74307912588119496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -2737,8 +3880,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9654655853907168</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I83" t="str" cm="1">
+        <f t="array" ref="I83">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B83)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71782416105270297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2758,8 +3913,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9095428705215334</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I84" t="str" cm="1">
+        <f t="array" ref="I84">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B84)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="3"/>
+        <v>0.715881466865539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -2779,8 +3946,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>15.072558347384133</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I85" t="str" cm="1">
+        <f t="array" ref="I85">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B85)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64934432506561202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2800,8 +3979,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>1.9124278823534502</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I86" t="str" cm="1">
+        <f t="array" ref="I86">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B86)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="3"/>
+        <v>0.634288430213928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2821,8 +4012,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>19.004140941301834</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I87" t="str" cm="1">
+        <f t="array" ref="I87">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B87)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="3"/>
+        <v>0.62408941984176602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -2842,8 +4045,20 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>16.963617809613499</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I88" t="str" cm="1">
+        <f t="array" ref="I88">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B88)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58863526582717896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -2863,13 +4078,37 @@
         <f>Table9[[#This Row],[ Time]]/60</f>
         <v>29.017790802319833</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>pill</v>
+      </c>
+      <c r="I89" t="str" cm="1">
+        <f t="array" ref="I89">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B89)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54249638319015503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="str" cm="1">
+        <f t="array" ref="I90">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B90)), ""))</f>
+        <v/>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2888,8 +4127,20 @@
       <c r="F91" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I91" t="str" cm="1">
+        <f t="array" ref="I91">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B91)), ""))</f>
+        <v/>
+      </c>
+      <c r="J91" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2909,8 +4160,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>2.1094571828842001</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I92" t="str" cm="1">
+        <f t="array" ref="I92">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B92)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="3"/>
+        <v>0.812500059604644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -2930,8 +4193,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>2.0786382476488665</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I93" t="str" cm="1">
+        <f t="array" ref="I93">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B93)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78611111640930098</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2951,8 +4226,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>45.879217676321666</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I94" t="str" cm="1">
+        <f t="array" ref="I94">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B94)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73055547475814797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2972,8 +4259,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>1.8445823868115667</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I95" t="str" cm="1">
+        <f t="array" ref="I95">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B95)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61412036418914795</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -2993,8 +4292,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>34.089815235137834</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I96" t="str" cm="1">
+        <f t="array" ref="I96">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B96)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56111109256744296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -3014,8 +4325,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>14.461075750986733</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I97" t="str" cm="1">
+        <f t="array" ref="I97">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B97)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52453702688217096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3035,8 +4358,20 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>11.72544726133345</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I98" t="str" cm="1">
+        <f t="array" ref="I98">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B98)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="3"/>
+        <v>0.466898113489151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -3056,12 +4391,36 @@
         <f>Table10[[#This Row],[ Time]]/60</f>
         <v>11.469791797796884</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" t="str">
+        <f t="shared" si="2"/>
+        <v>screw</v>
+      </c>
+      <c r="I99" t="str" cm="1">
+        <f t="array" ref="I99">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B99)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43634256720542902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
       <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="str" cm="1">
+        <f t="array" ref="I100">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B100)), ""))</f>
+        <v/>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3080,8 +4439,20 @@
       <c r="F101" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I101" t="str" cm="1">
+        <f t="array" ref="I101">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B101)), ""))</f>
+        <v/>
+      </c>
+      <c r="J101" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -3101,8 +4472,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.4157521287600199</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I102" t="str" cm="1">
+        <f t="array" ref="I102">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B102)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="3"/>
+        <v>0.97161173820495605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -3122,8 +4505,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>39.172257181008497</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I103" t="str" cm="1">
+        <f t="array" ref="I103">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B103)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96153843402862504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -3143,8 +4538,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.5371377984682717</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I104" t="str" cm="1">
+        <f t="array" ref="I104">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B104)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96153843402862504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -3164,8 +4571,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>9.9281338413556348</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I105" t="str" cm="1">
+        <f t="array" ref="I105">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B105)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93498170375823897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -3185,8 +4604,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>17.802430605888333</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I106" t="str" cm="1">
+        <f t="array" ref="I106">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B106)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88919413089752197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -3206,8 +4637,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>1.2558724164962767</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I107" t="str" cm="1">
+        <f t="array" ref="I107">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B107)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84798532724380404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -3227,8 +4670,20 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>8.1133582393328325</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I108" t="str" cm="1">
+        <f t="array" ref="I108">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B108)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65476185083389205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -3248,12 +4703,36 @@
         <f>Table11[[#This Row],[ Time]]/60</f>
         <v>7.7806529998779164</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" t="str">
+        <f t="shared" si="2"/>
+        <v>tile</v>
+      </c>
+      <c r="I109" t="str" cm="1">
+        <f t="array" ref="I109">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B109)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="3"/>
+        <v>0.50915747880935602</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="str" cm="1">
+        <f t="array" ref="I110">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B110)), ""))</f>
+        <v/>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3272,8 +4751,20 @@
       <c r="F111" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I111" t="str" cm="1">
+        <f t="array" ref="I111">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B111)), ""))</f>
+        <v/>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -3293,8 +4784,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>1.0229687174161266</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I112" t="str" cm="1">
+        <f t="array" ref="I112">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B112)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96190476417541504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -3314,8 +4817,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>0.97622811794281006</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I113" t="str" cm="1">
+        <f t="array" ref="I113">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B113)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95238095521926802</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -3335,8 +4850,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>26.696247386932335</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I114" t="str" cm="1">
+        <f t="array" ref="I114">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B114)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93333333730697599</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -3356,8 +4883,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>15.022368339697517</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I115" t="str" cm="1">
+        <f t="array" ref="I115">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B115)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89523810148239102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -3377,8 +4916,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>0.89149168729782002</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I116" t="str" cm="1">
+        <f t="array" ref="I116">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B116)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="3"/>
+        <v>0.795238137245178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -3398,8 +4949,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>26.438979570070835</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I117" t="str" cm="1">
+        <f t="array" ref="I117">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B117)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72380948066711404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -3419,8 +4982,20 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>11.711585084597266</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I118" t="str" cm="1">
+        <f t="array" ref="I118">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B118)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68571430444717396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3440,13 +5015,37 @@
         <f>Table12[[#This Row],[ Time]]/60</f>
         <v>21.261142408847665</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f t="shared" si="2"/>
+        <v>toothbrush</v>
+      </c>
+      <c r="I119" t="str" cm="1">
+        <f t="array" ref="I119">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B119)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56190478801727295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="str" cm="1">
+        <f t="array" ref="I120">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B120)), ""))</f>
+        <v/>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3465,8 +5064,20 @@
       <c r="F121" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" t="str">
+        <f t="shared" si="2"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I121" t="str" cm="1">
+        <f t="array" ref="I121">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B121)), ""))</f>
+        <v/>
+      </c>
+      <c r="J121" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -3486,8 +5097,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.3192783474922165</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I122" t="str" cm="1">
+        <f t="array" ref="I122">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B122)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J122" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88888889551162698</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -3507,8 +5130,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>42.037067993481834</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I123" t="str" cm="1">
+        <f t="array" ref="I123">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B123)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J123" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84444451332092196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -3528,8 +5163,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>18.834425870577334</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I124" t="str" cm="1">
+        <f t="array" ref="I124">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B124)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J124" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80370366573333696</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -3549,8 +5196,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.3463274319966634</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I125" t="str" cm="1">
+        <f t="array" ref="I125">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B125)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J125" s="3">
+        <f t="shared" si="3"/>
+        <v>0.757407426834106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -3570,8 +5229,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>17.060843491554166</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I126" t="str" cm="1">
+        <f t="array" ref="I126">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B126)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68703711032867398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -3591,8 +5262,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>1.29154657125473</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I127" t="str" cm="1">
+        <f t="array" ref="I127">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B127)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J127" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56481480598449696</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -3612,8 +5295,20 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>13.769795314470917</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I128" t="str" cm="1">
+        <f t="array" ref="I128">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B128)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J128" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54074072837829501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -3633,13 +5328,37 @@
         <f>Table13[[#This Row],[ Time]]/60</f>
         <v>9.9400483727455011</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129" t="str">
+        <f t="shared" si="2"/>
+        <v>transistor</v>
+      </c>
+      <c r="I129" t="str" cm="1">
+        <f t="array" ref="I129">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B129)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J129" s="3">
+        <f t="shared" si="3"/>
+        <v>0.39537036418914701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="str" cm="1">
+        <f t="array" ref="I130">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B130)), ""))</f>
+        <v/>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -3658,8 +5377,20 @@
       <c r="F131" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H182" si="4">A131</f>
+        <v>dataset_type</v>
+      </c>
+      <c r="I131" t="str" cm="1">
+        <f t="array" ref="I131">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B131)), ""))</f>
+        <v/>
+      </c>
+      <c r="J131" s="3" t="str">
+        <f t="shared" ref="J131:J182" si="5">C131</f>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -3679,8 +5410,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>44.53060342073433</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I132" t="str" cm="1">
+        <f t="array" ref="I132">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B132)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J132" s="3">
+        <f t="shared" si="5"/>
+        <v>0.981481492519378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -3700,8 +5443,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>19.967185827096166</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I133" t="str" cm="1">
+        <f t="array" ref="I133">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B133)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J133" s="3">
+        <f t="shared" si="5"/>
+        <v>0.967901170253753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -3721,8 +5476,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.4318654179573049</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I134" t="str" cm="1">
+        <f t="array" ref="I134">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B134)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J134" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96049380302429199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -3742,8 +5509,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.405490469932555</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I135" t="str" cm="1">
+        <f t="array" ref="I135">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B135)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J135" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94197529554366999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3763,8 +5542,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>9.2784104267755989</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I136" t="str" cm="1">
+        <f t="array" ref="I136">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B136)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J136" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89629626274108798</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3784,8 +5575,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>1.3751324693361915</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I137" t="str" cm="1">
+        <f t="array" ref="I137">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B137)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J137" s="3">
+        <f t="shared" si="5"/>
+        <v>0.79259264469146695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3805,8 +5608,20 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>6.8625196019808339</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I138" t="str" cm="1">
+        <f t="array" ref="I138">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B138)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J138" s="3">
+        <f t="shared" si="5"/>
+        <v>0.62962961196899403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3826,13 +5641,37 @@
         <f>Table14[[#This Row],[ Time]]/60</f>
         <v>7.5041163166363996</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139" t="str">
+        <f t="shared" si="4"/>
+        <v>wood</v>
+      </c>
+      <c r="I139" t="str" cm="1">
+        <f t="array" ref="I139">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B139)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J139" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44320988655090299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="str" cm="1">
+        <f t="array" ref="I140">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B140)), ""))</f>
+        <v/>
+      </c>
+      <c r="J140" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3851,8 +5690,20 @@
       <c r="F141" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H141" t="str">
+        <f t="shared" si="4"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I141" t="str" cm="1">
+        <f t="array" ref="I141">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B141)), ""))</f>
+        <v/>
+      </c>
+      <c r="J141" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -3872,8 +5723,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.8550976991653334</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H142" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I142" t="str" cm="1">
+        <f t="array" ref="I142">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B142)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J142" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99567902088165205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -3893,8 +5756,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>21.614290253321165</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I143" t="str" cm="1">
+        <f t="array" ref="I143">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B143)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J143" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98950612545013406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -3914,8 +5789,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>57.017540431022503</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I144" t="str" cm="1">
+        <f t="array" ref="I144">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B144)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J144" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98086416721343905</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -3935,8 +5822,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.7194646080334834</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I145" t="str" cm="1">
+        <f t="array" ref="I145">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B145)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J145" s="3">
+        <f t="shared" si="5"/>
+        <v>0.97345674037933305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -3956,8 +5855,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>18.739498523871003</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I146" t="str" cm="1">
+        <f t="array" ref="I146">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B146)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J146" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88209879398345903</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>27</v>
       </c>
@@ -3977,8 +5888,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>11.883316544691716</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H147" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I147" t="str" cm="1">
+        <f t="array" ref="I147">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B147)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J147" s="3">
+        <f t="shared" si="5"/>
+        <v>0.74845683574676503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -3998,8 +5921,20 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>1.8645878354708332</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H148" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I148" t="str" cm="1">
+        <f t="array" ref="I148">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B148)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" si="5"/>
+        <v>0.67993831634521396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -4019,13 +5954,51 @@
         <f>Table15[[#This Row],[ Time]]/60</f>
         <v>42.919376881917167</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149" t="str">
+        <f t="shared" si="4"/>
+        <v>zipper</v>
+      </c>
+      <c r="I149" t="str" cm="1">
+        <f t="array" ref="I149">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B149)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J149" s="3">
+        <f t="shared" si="5"/>
+        <v>0.38641974329948398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="str" cm="1">
+        <f t="array" ref="I150">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B150)), ""))</f>
+        <v/>
+      </c>
+      <c r="J150" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H151" t="str">
+        <f t="shared" si="4"/>
+        <v>Week 3 - Week 6</v>
+      </c>
+      <c r="I151" t="str" cm="1">
+        <f t="array" ref="I151">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B151)), ""))</f>
+        <v/>
+      </c>
+      <c r="J151" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4044,8 +6017,20 @@
       <c r="F152" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152" t="str">
+        <f t="shared" si="4"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I152" t="str" cm="1">
+        <f t="array" ref="I152">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B152)), ""))</f>
+        <v/>
+      </c>
+      <c r="J152" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -4065,8 +6050,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>19.948024507363503</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I153" t="str" cm="1">
+        <f t="array" ref="I153">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B153)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J153" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51923072338104204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -4086,8 +6083,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>1.2445642669995616</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I154" t="str" cm="1">
+        <f t="array" ref="I154">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B154)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J154" s="3">
+        <f t="shared" si="5"/>
+        <v>0.397893786430358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -4107,8 +6116,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>35.429049495855828</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I155" t="str" cm="1">
+        <f t="array" ref="I155">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B155)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J155" s="3">
+        <f t="shared" si="5"/>
+        <v>0.39468866586685097</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -4128,8 +6149,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>54.25295640230167</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I156" t="str" cm="1">
+        <f t="array" ref="I156">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B156)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J156" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33470696210861201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -4149,8 +6182,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>10.390381288528433</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I157" t="str" cm="1">
+        <f t="array" ref="I157">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B157)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J157" s="3">
+        <f t="shared" si="5"/>
+        <v>0.26831501722335799</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -4170,8 +6215,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>1.1760190367698666</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I158" t="str" cm="1">
+        <f t="array" ref="I158">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B158)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J158" s="3">
+        <f t="shared" si="5"/>
+        <v>0.26282051205634999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -4191,8 +6248,20 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>29.116204921404503</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I159" t="str" cm="1">
+        <f t="array" ref="I159">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B159)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J159" s="3">
+        <f t="shared" si="5"/>
+        <v>0.20650185644626601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -4212,17 +6281,53 @@
         <f>Table16[[#This Row],[ Time]]/60</f>
         <v>1.2223568598429351</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I160" t="str" cm="1">
+        <f t="array" ref="I160">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B160)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J160" s="3">
+        <f t="shared" si="5"/>
+        <v>0.25366303324699402</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="str" cm="1">
+        <f t="array" ref="I161">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B161)), ""))</f>
+        <v/>
+      </c>
+      <c r="J161" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>32</v>
       </c>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162" t="str">
+        <f t="shared" si="4"/>
+        <v>Week 3 Only</v>
+      </c>
+      <c r="I162" t="str" cm="1">
+        <f t="array" ref="I162">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B162)), ""))</f>
+        <v/>
+      </c>
+      <c r="J162" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4241,8 +6346,20 @@
       <c r="F163" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H163" t="str">
+        <f t="shared" si="4"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I163" t="str" cm="1">
+        <f t="array" ref="I163">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B163)), ""))</f>
+        <v/>
+      </c>
+      <c r="J163" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -4262,8 +6379,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>7.8293074369430506</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I164" t="str" cm="1">
+        <f t="array" ref="I164">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B164)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J164" s="3">
+        <f t="shared" si="5"/>
+        <v>0.71923077106475797</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -4283,8 +6412,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>10.178544028600049</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H165" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I165" t="str" cm="1">
+        <f t="array" ref="I165">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B165)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J165" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57692313200000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>30</v>
       </c>
@@ -4304,8 +6445,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>1.114309763908385</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H166" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I166" t="str" cm="1">
+        <f t="array" ref="I166">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B166)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J166" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55000001200000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>30</v>
       </c>
@@ -4325,8 +6478,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>33.003484030564501</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H167" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I167" t="str" cm="1">
+        <f t="array" ref="I167">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B167)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J167" s="3">
+        <f t="shared" si="5"/>
+        <v>0.48461538553237898</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -4346,8 +6511,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>1.2039270202318817</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H168" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I168" t="str" cm="1">
+        <f t="array" ref="I168">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B168)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J168" s="3">
+        <f t="shared" si="5"/>
+        <v>0.43461540341377197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>30</v>
       </c>
@@ -4367,8 +6544,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>1.2439302126566567</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H169" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I169" t="str" cm="1">
+        <f t="array" ref="I169">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B169)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J169" s="3">
+        <f t="shared" si="5"/>
+        <v>0.415384590625762</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4388,8 +6577,20 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>24.297244668006833</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H170" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I170" t="str" cm="1">
+        <f t="array" ref="I170">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B170)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J170" s="3">
+        <f t="shared" si="5"/>
+        <v>0.40192309021949701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>30</v>
       </c>
@@ -4409,13 +6610,571 @@
         <f>Table17[[#This Row],[ Time]]/60</f>
         <v>16.916831477483001</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H171" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I171" t="str" cm="1">
+        <f t="array" ref="I171">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B171)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J171" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33076924085616999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E172" s="3"/>
+      <c r="H172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="str" cm="1">
+        <f t="array" ref="I172">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B172)), ""))</f>
+        <v/>
+      </c>
+      <c r="J172" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>33</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="H173" t="str">
+        <f t="shared" si="4"/>
+        <v>Week 6-9</v>
+      </c>
+      <c r="I173" t="str" cm="1">
+        <f t="array" ref="I173">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B173)), ""))</f>
+        <v/>
+      </c>
+      <c r="J173" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="4"/>
+        <v>dataset_type</v>
+      </c>
+      <c r="I174" t="str" cm="1">
+        <f t="array" ref="I174">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B174)), ""))</f>
+        <v/>
+      </c>
+      <c r="J174" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> AUROC</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.58161872625350897</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.56654369800000004</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1329.7297613620699</v>
+      </c>
+      <c r="F175" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>22.162162689367833</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I175" t="str" cm="1">
+        <f t="array" ref="I175">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B175)), ""))</f>
+        <v>Stfpm</v>
+      </c>
+      <c r="J175" s="3">
+        <f t="shared" si="5"/>
+        <v>0.58161872625350897</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.53532236799999999</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.64666843414306596</v>
+      </c>
+      <c r="E176" s="2">
+        <v>974.19692468643098</v>
+      </c>
+      <c r="F176" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>16.236615411440518</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I176" t="str" cm="1">
+        <f t="array" ref="I176">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B176)), ""))</f>
+        <v>Draem</v>
+      </c>
+      <c r="J176" s="3">
+        <f t="shared" si="5"/>
+        <v>0.53532236799999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.53052127361297596</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.72209286699999997</v>
+      </c>
+      <c r="E177" s="2">
+        <v>979.150516748428</v>
+      </c>
+      <c r="F177" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>16.319175279140467</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I177" t="str" cm="1">
+        <f t="array" ref="I177">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B177)), ""))</f>
+        <v>ReverseDistillation</v>
+      </c>
+      <c r="J177" s="3">
+        <f t="shared" si="5"/>
+        <v>0.53052127361297596</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0.52572011947631803</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.53086221218109098</v>
+      </c>
+      <c r="E178" s="2">
+        <v>104.88731980323701</v>
+      </c>
+      <c r="F178" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>1.7481219967206167</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I178" t="str" cm="1">
+        <f t="array" ref="I178">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B178)), ""))</f>
+        <v>Patchcore</v>
+      </c>
+      <c r="J178" s="3">
+        <f t="shared" si="5"/>
+        <v>0.52572011947631803</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0.52503430843353205</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.505082607269287</v>
+      </c>
+      <c r="E179" s="2">
+        <v>4610.5139875411896</v>
+      </c>
+      <c r="F179" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>76.841899792353161</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I179" t="str" cm="1">
+        <f t="array" ref="I179">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B179)), ""))</f>
+        <v>Fastflow</v>
+      </c>
+      <c r="J179" s="3">
+        <f t="shared" si="5"/>
+        <v>0.52503430843353205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.52434843778610196</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.540430307388305</v>
+      </c>
+      <c r="E180" s="2">
+        <v>99.362331628799396</v>
+      </c>
+      <c r="F180" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>1.6560388604799898</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I180" t="str" cm="1">
+        <f t="array" ref="I180">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B180)), ""))</f>
+        <v>Dfkde</v>
+      </c>
+      <c r="J180" s="3">
+        <f t="shared" si="5"/>
+        <v>0.52434843778610196</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.47119340300000001</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.52133661508560103</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1132.20942831039</v>
+      </c>
+      <c r="F181" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>18.870157138506499</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I181" t="str" cm="1">
+        <f t="array" ref="I181">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B181)), ""))</f>
+        <v>Ganomaly</v>
+      </c>
+      <c r="J181" s="3">
+        <f t="shared" si="5"/>
+        <v>0.47119340300000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.450274348258972</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.47886556386947599</v>
+      </c>
+      <c r="E182" s="2">
+        <v>108.822366714477</v>
+      </c>
+      <c r="F182" s="4">
+        <f>Table19[[#This Row],[ Time]]/60</f>
+        <v>1.8137061119079501</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="4"/>
+        <v>plant</v>
+      </c>
+      <c r="I182" t="str" cm="1">
+        <f t="array" ref="I182">_xlfn.TEXTJOIN("", TRUE, _xlfn._xlws.FILTER($P$1:$P$8, ISNUMBER(SEARCH($P$1:$P$8, B182)), ""))</f>
+        <v>Padim</v>
+      </c>
+      <c r="J182" s="3">
+        <f t="shared" si="5"/>
+        <v>0.450274348258972</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" t="s">
+        <v>46</v>
+      </c>
+      <c r="D184" t="s">
+        <v>47</v>
+      </c>
+      <c r="E184" t="s">
+        <v>48</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>37</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="C185">
+        <v>0.5</v>
+      </c>
+      <c r="D185">
+        <v>0.13084112149532701</v>
+      </c>
+      <c r="E185">
+        <v>0.20740740740740701</v>
+      </c>
+      <c r="F185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186">
+        <v>0.5</v>
+      </c>
+      <c r="C186">
+        <v>0.5</v>
+      </c>
+      <c r="D186">
+        <v>9.34579439252336E-2</v>
+      </c>
+      <c r="E186">
+        <v>0.157480314960629</v>
+      </c>
+      <c r="F186">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <v>0.5</v>
+      </c>
+      <c r="D187">
+        <v>9.34579439252336E-2</v>
+      </c>
+      <c r="E187">
+        <v>0.157480314960629</v>
+      </c>
+      <c r="F187">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>42</v>
+      </c>
+      <c r="B188">
+        <v>0.5</v>
+      </c>
+      <c r="C188">
+        <v>0.5</v>
+      </c>
+      <c r="D188">
+        <v>3.73831775700934E-2</v>
+      </c>
+      <c r="E188">
+        <v>6.9565217391304293E-2</v>
+      </c>
+      <c r="F188">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189">
+        <v>0.5</v>
+      </c>
+      <c r="C189">
+        <v>0.5</v>
+      </c>
+      <c r="D189">
+        <v>1.86915887850467E-2</v>
+      </c>
+      <c r="E189">
+        <v>3.6036036036036001E-2</v>
+      </c>
+      <c r="F189">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>36</v>
+      </c>
+      <c r="B190">
+        <v>0.5</v>
+      </c>
+      <c r="C190">
+        <v>0.5</v>
+      </c>
+      <c r="D190">
+        <v>9.3457943925233603E-3</v>
+      </c>
+      <c r="E190">
+        <v>1.8348623853211E-2</v>
+      </c>
+      <c r="F190">
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <v>0.5</v>
+      </c>
+      <c r="D191">
+        <v>2.8037383177569999E-2</v>
+      </c>
+      <c r="E191">
+        <v>5.30973451327433E-2</v>
+      </c>
+      <c r="F191">
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192">
+        <v>0.49532710280373798</v>
+      </c>
+      <c r="C192">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D192">
+        <v>6.5420560747663503E-2</v>
+      </c>
+      <c r="E192">
+        <v>0.114754098360655</v>
+      </c>
+      <c r="F192">
+        <v>0.49532710280373798</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193">
+        <v>0.49532710280373798</v>
+      </c>
+      <c r="C193">
+        <v>0.48148148148148101</v>
+      </c>
+      <c r="D193">
+        <v>0.121495327102803</v>
+      </c>
+      <c r="E193">
+        <v>0.194029850746268</v>
+      </c>
+      <c r="F193">
+        <v>0.49532710280373798</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194">
+        <v>0.49532710280373798</v>
+      </c>
+      <c r="C194">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="D194">
+        <v>8.4112149532710206E-2</v>
+      </c>
+      <c r="E194">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="F194">
+        <v>0.49532710280373798</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="17">
+  <tableParts count="19">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4433,6 +7192,8 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>